--- a/FPH_Linear/204-FPH-Relatório-Reg-D-CACH.CALDEIR.xlsx
+++ b/FPH_Linear/204-FPH-Relatório-Reg-D-CACH.CALDEIR.xlsx
@@ -951,7 +951,7 @@
         <v>0.308789515131666</v>
       </c>
       <c r="E2">
-        <v>-0.006029132453227933</v>
+        <v>-0.005473083276712551</v>
       </c>
       <c r="F2">
         <v>-64.9198169618716</v>
@@ -960,7 +960,7 @@
         <v>0.09827607457477923</v>
       </c>
       <c r="H2">
-        <v>0.708540656255447</v>
+        <v>0.6343680329652521</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>0.3087893129308509</v>
       </c>
       <c r="E3">
-        <v>-0.006029132452282485</v>
+        <v>-0.005473083276095245</v>
       </c>
       <c r="F3">
         <v>-64.91977034297538</v>
@@ -997,7 +997,7 @@
         <v>0.3087891077098593</v>
       </c>
       <c r="E4">
-        <v>-0.006029132451362841</v>
+        <v>-0.005473083275494787</v>
       </c>
       <c r="F4">
         <v>-64.91972302787107</v>
@@ -1017,7 +1017,7 @@
         <v>0.3087889055090442</v>
       </c>
       <c r="E5">
-        <v>-0.006029132450476382</v>
+        <v>-0.005473083274915998</v>
       </c>
       <c r="F5">
         <v>-64.91967640914616</v>
@@ -1037,7 +1037,7 @@
         <v>0.3087886327871083</v>
       </c>
       <c r="E6">
-        <v>-0.006029132449333983</v>
+        <v>-0.005473083274170099</v>
       </c>
       <c r="F6">
         <v>-64.91961353146803</v>
@@ -1057,7 +1057,7 @@
         <v>0.308788429982258</v>
       </c>
       <c r="E7">
-        <v>-0.006029132448523964</v>
+        <v>-0.005473083273641219</v>
       </c>
       <c r="F7">
         <v>-64.91956677370783</v>
@@ -1077,7 +1077,7 @@
         <v>0.3087882276304341</v>
       </c>
       <c r="E8">
-        <v>-0.006029132447735453</v>
+        <v>-0.005473083273126382</v>
       </c>
       <c r="F8">
         <v>-64.91952012045257</v>
@@ -1097,7 +1097,7 @@
         <v>0.3087880243725571</v>
       </c>
       <c r="E9">
-        <v>-0.006029132446982925</v>
+        <v>-0.005473083272635039</v>
       </c>
       <c r="F9">
         <v>-64.9194732584168</v>
@@ -1117,7 +1117,7 @@
         <v>0.3087878192559448</v>
       </c>
       <c r="E10">
-        <v>-0.006029132446243696</v>
+        <v>-0.005473083272152379</v>
       </c>
       <c r="F10">
         <v>-64.91942596789889</v>
@@ -1137,7 +1137,7 @@
         <v>0.3087876163467152</v>
       </c>
       <c r="E11">
-        <v>-0.006029132445551835</v>
+        <v>-0.005473083271700647</v>
       </c>
       <c r="F11">
         <v>-64.91937918641723</v>
@@ -1157,7 +1157,7 @@
         <v>0.308787413390856</v>
       </c>
       <c r="E12">
-        <v>-0.006029132444879601</v>
+        <v>-0.00547308327126173</v>
       </c>
       <c r="F12">
         <v>-64.91933239424226</v>
@@ -1177,7 +1177,7 @@
         <v>0.3087872074148203</v>
       </c>
       <c r="E13">
-        <v>-0.006029132444237494</v>
+        <v>-0.005473083270842483</v>
       </c>
       <c r="F13">
         <v>-64.91928490587145</v>
@@ -1197,7 +1197,7 @@
         <v>0.3087870065730846</v>
       </c>
       <c r="E14">
-        <v>-0.00602913244363087</v>
+        <v>-0.005473083270446404</v>
       </c>
       <c r="F14">
         <v>-64.91923860128507</v>
@@ -1217,7 +1217,7 @@
         <v>0.3087868005970489</v>
       </c>
       <c r="E15">
-        <v>-0.00602913244304902</v>
+        <v>-0.0054730832700665</v>
       </c>
       <c r="F15">
         <v>-64.91919111308867</v>
@@ -1237,7 +1237,7 @@
         <v>0.3087866000573309</v>
       </c>
       <c r="E16">
-        <v>-0.006029132442502005</v>
+        <v>-0.005473083269709342</v>
       </c>
       <c r="F16">
         <v>-64.91914487830303</v>
@@ -1257,7 +1257,7 @@
         <v>0.3087863943833128</v>
       </c>
       <c r="E17">
-        <v>-0.006029132441981116</v>
+        <v>-0.005473083269369241</v>
       </c>
       <c r="F17">
         <v>-64.91909745991173</v>
@@ -1277,7 +1277,7 @@
         <v>0.3087861923335066</v>
       </c>
       <c r="E18">
-        <v>-0.006029132441489003</v>
+        <v>-0.005473083269047929</v>
       </c>
       <c r="F18">
         <v>-64.91905087714368</v>
@@ -1297,7 +1297,7 @@
         <v>0.3087859881695767</v>
       </c>
       <c r="E19">
-        <v>-0.00602913244103149</v>
+        <v>-0.005473083268749209</v>
       </c>
       <c r="F19">
         <v>-64.9190038070779</v>
@@ -1317,7 +1317,7 @@
         <v>0.3087857847606911</v>
       </c>
       <c r="E20">
-        <v>-0.006029132440595573</v>
+        <v>-0.005473083268464587</v>
       </c>
       <c r="F20">
         <v>-64.91895691114519</v>
@@ -1337,7 +1337,7 @@
         <v>0.3087855144548964</v>
       </c>
       <c r="E21">
-        <v>-0.006029132440068947</v>
+        <v>-0.005473083268120742</v>
       </c>
       <c r="F21">
         <v>-64.91889459227812</v>
@@ -1357,7 +1357,7 @@
         <v>0.3087853107439931</v>
       </c>
       <c r="E22">
-        <v>-0.006029132439711734</v>
+        <v>-0.005473083267887509</v>
       </c>
       <c r="F22">
         <v>-64.91884762694524</v>
@@ -1377,7 +1377,7 @@
         <v>0.308785105069975</v>
       </c>
       <c r="E23">
-        <v>-0.006029132439371085</v>
+        <v>-0.005473083267665092</v>
       </c>
       <c r="F23">
         <v>-64.91880020907648</v>
@@ -1397,7 +1397,7 @@
         <v>0.3087849051342922</v>
       </c>
       <c r="E24">
-        <v>-0.006029132439078924</v>
+        <v>-0.005473083267474333</v>
       </c>
       <c r="F24">
         <v>-64.918754114286</v>
@@ -1417,7 +1417,7 @@
         <v>0.3087846998666715</v>
       </c>
       <c r="E25">
-        <v>-0.006029132438798944</v>
+        <v>-0.005473083267291527</v>
       </c>
       <c r="F25">
         <v>-64.91870679028546</v>
@@ -1437,7 +1437,7 @@
         <v>0.3087844288524619</v>
       </c>
       <c r="E26">
-        <v>-0.006029132438482128</v>
+        <v>-0.00547308326708467</v>
       </c>
       <c r="F26">
         <v>-64.91864430870578</v>
@@ -1457,7 +1457,7 @@
         <v>0.3087842231784439</v>
       </c>
       <c r="E27">
-        <v>-0.006029132438281763</v>
+        <v>-0.005473083266953848</v>
       </c>
       <c r="F27">
         <v>-64.91859689124344</v>
@@ -1477,7 +1477,7 @@
         <v>0.3087840902906789</v>
       </c>
       <c r="E28">
-        <v>-0.006029132438165311</v>
+        <v>-0.005473083266877813</v>
       </c>
       <c r="F28">
         <v>-64.91856625444775</v>
@@ -1497,7 +1497,7 @@
         <v>0.3087838856737226</v>
       </c>
       <c r="E29">
-        <v>-0.006029132438005813</v>
+        <v>-0.005473083266773674</v>
       </c>
       <c r="F29">
         <v>-64.91851908080295</v>
@@ -1517,7 +1517,7 @@
         <v>0.3087836825668546</v>
       </c>
       <c r="E30">
-        <v>-0.006029132437887125</v>
+        <v>-0.005473083266696179</v>
       </c>
       <c r="F30">
         <v>-64.91847225541787</v>
@@ -1537,7 +1537,7 @@
         <v>0.3087834794599865</v>
       </c>
       <c r="E31">
-        <v>-0.006029132437788208</v>
+        <v>-0.005473083266631595</v>
       </c>
       <c r="F31">
         <v>-64.91842543009014</v>
@@ -1557,7 +1557,7 @@
         <v>0.3087832739369773</v>
       </c>
       <c r="E32">
-        <v>-0.006029132437728099</v>
+        <v>-0.005473083266592347</v>
       </c>
       <c r="F32">
         <v>-64.91837804784861</v>
@@ -1577,7 +1577,7 @@
         <v>0.3087830717361622</v>
       </c>
       <c r="E33">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F33">
         <v>-64.91833143157835</v>
@@ -1597,7 +1597,7 @@
         <v>0.2315921363487495</v>
       </c>
       <c r="E34">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F34">
         <v>-47.12243535704212</v>
@@ -1617,7 +1617,7 @@
         <v>0.2315919848868992</v>
       </c>
       <c r="E35">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F35">
         <v>-47.12240043838574</v>
@@ -1637,7 +1637,7 @@
         <v>0.23159177936389</v>
       </c>
       <c r="E36">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F36">
         <v>-47.12235305608618</v>
@@ -1657,7 +1657,7 @@
         <v>0.2315915774650925</v>
       </c>
       <c r="E37">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F37">
         <v>-47.12230650917833</v>
@@ -1677,7 +1677,7 @@
         <v>0.2315913734521715</v>
       </c>
       <c r="E38">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F38">
         <v>-47.12225947471484</v>
@@ -1697,7 +1697,7 @@
         <v>0.2315912209332595</v>
       </c>
       <c r="E39">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F39">
         <v>-47.12222431189964</v>
@@ -1717,7 +1717,7 @@
         <v>0.2315910693204003</v>
       </c>
       <c r="E40">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F40">
         <v>-47.12218935791545</v>
@@ -1737,7 +1737,7 @@
         <v>0.2315908645174629</v>
       </c>
       <c r="E41">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F41">
         <v>-47.12214214093093</v>
@@ -1757,7 +1757,7 @@
         <v>0.2315907120335232</v>
       </c>
       <c r="E42">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F42">
         <v>-47.12210698589154</v>
@@ -1777,7 +1777,7 @@
         <v>0.2315905601186464</v>
       </c>
       <c r="E43">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F43">
         <v>-47.12207196199194</v>
@@ -1797,7 +1797,7 @@
         <v>0.2315904054856108</v>
       </c>
       <c r="E44">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F44">
         <v>-47.12203631130576</v>
@@ -1817,7 +1817,7 @@
         <v>0.2315902547788046</v>
       </c>
       <c r="E45">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F45">
         <v>-47.12200156575609</v>
@@ -1837,7 +1837,7 @@
         <v>0.2315900507658837</v>
       </c>
       <c r="E46">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F46">
         <v>-47.12195453029419</v>
@@ -1857,7 +1857,7 @@
         <v>0.2315898993040333</v>
       </c>
       <c r="E47">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F47">
         <v>-47.12191961044052</v>
@@ -1877,7 +1877,7 @@
         <v>0.2315897449730154</v>
       </c>
       <c r="E48">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F48">
         <v>-47.12188402903599</v>
@@ -1897,7 +1897,7 @@
         <v>0.2315895427722003</v>
       </c>
       <c r="E49">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F49">
         <v>-47.12183741097707</v>
@@ -1917,7 +1917,7 @@
         <v>0.2315893386082705</v>
       </c>
       <c r="E50">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F50">
         <v>-47.12179034016198</v>
@@ -1937,7 +1937,7 @@
         <v>0.2315891871464202</v>
       </c>
       <c r="E51">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F51">
         <v>-47.12175541990923</v>
@@ -1957,7 +1957,7 @@
         <v>0.2315890337214552</v>
       </c>
       <c r="E52">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F52">
         <v>-47.1217200469932</v>
@@ -1977,7 +1977,7 @@
         <v>0.2315888796924549</v>
       </c>
       <c r="E53">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F53">
         <v>-47.12168453469783</v>
@@ -1997,7 +1997,7 @@
         <v>0.2315887283816134</v>
       </c>
       <c r="E54">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F54">
         <v>-47.12164964903301</v>
@@ -2017,7 +2017,7 @@
         <v>0.2315885249377558</v>
       </c>
       <c r="E55">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F55">
         <v>-47.12160274362078</v>
@@ -2037,7 +2037,7 @@
         <v>0.2315883713967539</v>
       </c>
       <c r="E56">
-        <v>-0.006029132437688762</v>
+        <v>-0.005473083266566663</v>
       </c>
       <c r="F56">
         <v>-47.12156734354731</v>
@@ -2057,7 +2057,7 @@
         <v>0.2315882717309302</v>
       </c>
       <c r="E57">
-        <v>-0.006029132437688732</v>
+        <v>-0.005473083266566644</v>
       </c>
       <c r="F57">
         <v>-47.12154436477817</v>
@@ -2077,7 +2077,7 @@
         <v>0.231588117550921</v>
       </c>
       <c r="E58">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F58">
         <v>-47.12150881726051</v>
@@ -2097,7 +2097,7 @@
         <v>0.231587914444053</v>
       </c>
       <c r="E59">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F59">
         <v>-47.12146198908488</v>
@@ -2117,7 +2117,7 @@
         <v>0.2315877102801232</v>
       </c>
       <c r="E60">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F60">
         <v>-47.12141491704008</v>
@@ -2137,7 +2137,7 @@
         <v>0.2315875079282992</v>
       </c>
       <c r="E61">
-        <v>-0.006029132437688673</v>
+        <v>-0.005473083266566605</v>
       </c>
       <c r="F61">
         <v>-47.12136826264224</v>
@@ -2157,7 +2157,7 @@
         <v>0.2315873037643694</v>
       </c>
       <c r="E62">
-        <v>-0.006029132437688703</v>
+        <v>-0.005473083266566624</v>
       </c>
       <c r="F62">
         <v>-47.12132119029005</v>
@@ -2177,7 +2177,7 @@
         <v>0.2315921363487495</v>
       </c>
       <c r="E63">
-        <v>-0.007287552606354101</v>
+        <v>-0.006294735096867925</v>
       </c>
       <c r="F63">
         <v>-50.76933700583461</v>
@@ -2197,7 +2197,7 @@
         <v>0.2315919848868992</v>
       </c>
       <c r="E64">
-        <v>-0.007287552605660681</v>
+        <v>-0.006294735096415176</v>
       </c>
       <c r="F64">
         <v>-50.76930208516844</v>
@@ -2217,7 +2217,7 @@
         <v>0.2315917793638899</v>
       </c>
       <c r="E65">
-        <v>-0.007287552604799703</v>
+        <v>-0.006294735095853024</v>
       </c>
       <c r="F65">
         <v>-50.76925470037384</v>
@@ -2237,7 +2237,7 @@
         <v>0.2315915774650925</v>
       </c>
       <c r="E66">
-        <v>-0.007287552604032611</v>
+        <v>-0.006294735095352171</v>
       </c>
       <c r="F66">
         <v>-50.76920815124305</v>
@@ -2257,7 +2257,7 @@
         <v>0.2315913734521715</v>
       </c>
       <c r="E67">
-        <v>-0.007287552603336985</v>
+        <v>-0.006294735094897981</v>
       </c>
       <c r="F67">
         <v>-50.7691611147637</v>
@@ -2277,7 +2277,7 @@
         <v>0.2315912209332595</v>
       </c>
       <c r="E68">
-        <v>-0.007287552602876413</v>
+        <v>-0.006294735094597262</v>
       </c>
       <c r="F68">
         <v>-50.76912595061371</v>
@@ -2297,7 +2297,7 @@
         <v>0.2315910693204003</v>
       </c>
       <c r="E69">
-        <v>-0.007287552602448116</v>
+        <v>-0.006294735094317617</v>
       </c>
       <c r="F69">
         <v>-50.76909099538817</v>
@@ -2317,7 +2317,7 @@
         <v>0.231590864517463</v>
       </c>
       <c r="E70">
-        <v>-0.007287552601949294</v>
+        <v>-0.006294735093991925</v>
       </c>
       <c r="F70">
         <v>-50.7690437769582</v>
@@ -2337,7 +2337,7 @@
         <v>0.2315907120335232</v>
       </c>
       <c r="E71">
-        <v>-0.007287552601637421</v>
+        <v>-0.006294735093788295</v>
       </c>
       <c r="F71">
         <v>-50.76900862101479</v>
@@ -2357,7 +2357,7 @@
         <v>0.2315905601186464</v>
       </c>
       <c r="E72">
-        <v>-0.007287552601356234</v>
+        <v>-0.006294735093604701</v>
       </c>
       <c r="F72">
         <v>-50.76897359630031</v>
@@ -2377,7 +2377,7 @@
         <v>0.2315904054856108</v>
       </c>
       <c r="E73">
-        <v>-0.007287552601130184</v>
+        <v>-0.006294735093457108</v>
       </c>
       <c r="F73">
         <v>-50.76893794495924</v>
@@ -2397,7 +2397,7 @@
         <v>0.2315902547788046</v>
       </c>
       <c r="E74">
-        <v>-0.007287552600939353</v>
+        <v>-0.00629473509333251</v>
       </c>
       <c r="F74">
         <v>-50.76890319885642</v>
@@ -2417,7 +2417,7 @@
         <v>0.2315900507658837</v>
       </c>
       <c r="E75">
-        <v>-0.007287552600760438</v>
+        <v>-0.006294735093215692</v>
       </c>
       <c r="F75">
         <v>-50.76885616287617</v>
@@ -2437,7 +2437,7 @@
         <v>0.2315898993040333</v>
       </c>
       <c r="E76">
-        <v>-0.007287552600686677</v>
+        <v>-0.006294735093167532</v>
       </c>
       <c r="F76">
         <v>-50.76882124280871</v>
@@ -2457,7 +2457,7 @@
         <v>0.2315897449730154</v>
       </c>
       <c r="E77">
-        <v>-0.007287552600641572</v>
+        <v>-0.006294735093138082</v>
       </c>
       <c r="F77">
         <v>-50.76878566127349</v>
@@ -2477,7 +2477,7 @@
         <v>0.2315895427722003</v>
       </c>
       <c r="E78">
-        <v>-0.007287552600661344</v>
+        <v>-0.006294735093150992</v>
       </c>
       <c r="F78">
         <v>-50.76873904327167</v>
@@ -2497,7 +2497,7 @@
         <v>0.2315893386082705</v>
       </c>
       <c r="E79">
-        <v>-0.00728755260076082</v>
+        <v>-0.006294735093215942</v>
       </c>
       <c r="F79">
         <v>-50.76869197274475</v>
@@ -2517,7 +2517,7 @@
         <v>0.2315891871464202</v>
       </c>
       <c r="E80">
-        <v>-0.007287552600893542</v>
+        <v>-0.006294735093302599</v>
       </c>
       <c r="F80">
         <v>-50.76865705287681</v>
@@ -2537,7 +2537,7 @@
         <v>0.2315890337214552</v>
       </c>
       <c r="E81">
-        <v>-0.007287552601057923</v>
+        <v>-0.006294735093409928</v>
       </c>
       <c r="F81">
         <v>-50.76862168043733</v>
@@ -2557,7 +2557,7 @@
         <v>0.2315888796924549</v>
       </c>
       <c r="E82">
-        <v>-0.007287552601283003</v>
+        <v>-0.006294735093556888</v>
       </c>
       <c r="F82">
         <v>-50.76858616879422</v>
@@ -2577,7 +2577,7 @@
         <v>0.2315887283816134</v>
       </c>
       <c r="E83">
-        <v>-0.00728755260153362</v>
+        <v>-0.006294735093720521</v>
       </c>
       <c r="F83">
         <v>-50.76855128385556</v>
@@ -2597,7 +2597,7 @@
         <v>0.2315885249377558</v>
       </c>
       <c r="E84">
-        <v>-0.007287552601949823</v>
+        <v>-0.006294735093992271</v>
       </c>
       <c r="F84">
         <v>-50.76850437964952</v>
@@ -2617,7 +2617,7 @@
         <v>0.2315883713967539</v>
       </c>
       <c r="E85">
-        <v>-0.007287552602323748</v>
+        <v>-0.006294735094236415</v>
       </c>
       <c r="F85">
         <v>-50.76846898065973</v>
@@ -2637,7 +2637,7 @@
         <v>0.2315882717309301</v>
       </c>
       <c r="E86">
-        <v>-0.00728755260258587</v>
+        <v>-0.00629473509440756</v>
       </c>
       <c r="F86">
         <v>-50.76844600265024</v>
@@ -2657,7 +2657,7 @@
         <v>0.231588117550921</v>
       </c>
       <c r="E87">
-        <v>-0.007287552603021464</v>
+        <v>-0.00629473509469197</v>
       </c>
       <c r="F87">
         <v>-50.76841045639495</v>
@@ -2677,7 +2677,7 @@
         <v>0.231587914444053</v>
       </c>
       <c r="E88">
-        <v>-0.007287552603674486</v>
+        <v>-0.006294735095118343</v>
       </c>
       <c r="F88">
         <v>-50.76836363011154</v>
@@ -2697,7 +2697,7 @@
         <v>0.2315877102801232</v>
       </c>
       <c r="E89">
-        <v>-0.007287552604410333</v>
+        <v>-0.006294735095598794</v>
       </c>
       <c r="F89">
         <v>-50.76831656019944</v>
@@ -2717,7 +2717,7 @@
         <v>0.2315875079282993</v>
       </c>
       <c r="E90">
-        <v>-0.007287552605218556</v>
+        <v>-0.006294735096126502</v>
       </c>
       <c r="F90">
         <v>-50.76826990814375</v>
@@ -2737,7 +2737,7 @@
         <v>0.2315873037643695</v>
       </c>
       <c r="E91">
-        <v>-0.007287552606113575</v>
+        <v>-0.006294735096710881</v>
       </c>
       <c r="F91">
         <v>-50.76822283838538</v>
@@ -2757,7 +2757,7 @@
         <v>0.1543946901655613</v>
       </c>
       <c r="E92">
-        <v>-0.007287921084970829</v>
+        <v>-0.006294975685136773</v>
       </c>
       <c r="F92">
         <v>-32.97158391194282</v>
@@ -2777,7 +2777,7 @@
         <v>0.1543944864043217</v>
       </c>
       <c r="E93">
-        <v>-0.007287921085883914</v>
+        <v>-0.006294975685732947</v>
       </c>
       <c r="F93">
         <v>-32.9715369349283</v>
@@ -2797,7 +2797,7 @@
         <v>0.1543942826430821</v>
       </c>
       <c r="E94">
-        <v>-0.007287921086737418</v>
+        <v>-0.006294975686290219</v>
       </c>
       <c r="F94">
         <v>-32.97148995774119</v>
@@ -2817,7 +2817,7 @@
         <v>0.1543940799389042</v>
       </c>
       <c r="E95">
-        <v>-0.007287921087527341</v>
+        <v>-0.006294975686805979</v>
       </c>
       <c r="F95">
         <v>-32.97144322408816</v>
@@ -2837,7 +2837,7 @@
         <v>0.1543938758097675</v>
       </c>
       <c r="E96">
-        <v>-0.007287921088263128</v>
+        <v>-0.006294975687286391</v>
       </c>
       <c r="F96">
         <v>-32.97139616173656</v>
@@ -2857,7 +2857,7 @@
         <v>0.1543936723660887</v>
       </c>
       <c r="E97">
-        <v>-0.007287921088936981</v>
+        <v>-0.006294975687726366</v>
       </c>
       <c r="F97">
         <v>-32.97134925724625</v>
@@ -2877,7 +2877,7 @@
         <v>0.154393468957203</v>
       </c>
       <c r="E98">
-        <v>-0.007287921089551226</v>
+        <v>-0.00629497568812742</v>
       </c>
       <c r="F98">
         <v>-32.97130236060531</v>
@@ -2897,7 +2897,7 @@
         <v>0.1543932657496624</v>
       </c>
       <c r="E99">
-        <v>-0.007287921090105597</v>
+        <v>-0.006294975688489381</v>
       </c>
       <c r="F99">
         <v>-32.97125551021304</v>
@@ -2917,7 +2917,7 @@
         <v>0.1543930621394316</v>
       </c>
       <c r="E100">
-        <v>-0.007287921090601476</v>
+        <v>-0.006294975688813153</v>
       </c>
       <c r="F100">
         <v>-32.97120856680636</v>
@@ -2937,7 +2937,7 @@
         <v>0.1543928924558499</v>
       </c>
       <c r="E101">
-        <v>-0.007287921090965073</v>
+        <v>-0.006294975689050555</v>
       </c>
       <c r="F101">
         <v>-32.97116944522286</v>
@@ -2957,7 +2957,7 @@
         <v>0.1543927570764394</v>
       </c>
       <c r="E102">
-        <v>-0.007287921091228872</v>
+        <v>-0.006294975689222795</v>
       </c>
       <c r="F102">
         <v>-32.97113823259855</v>
@@ -2977,7 +2977,7 @@
         <v>0.1543925868643268</v>
       </c>
       <c r="E103">
-        <v>-0.007287921091527358</v>
+        <v>-0.006294975689417683</v>
       </c>
       <c r="F103">
         <v>-32.97109898896682</v>
@@ -2997,7 +2997,7 @@
         <v>0.1543923840942696</v>
       </c>
       <c r="E104">
-        <v>-0.007287921091823609</v>
+        <v>-0.006294975689611113</v>
       </c>
       <c r="F104">
         <v>-32.97105223869413</v>
@@ -3017,7 +3017,7 @@
         <v>0.1543921801975642</v>
       </c>
       <c r="E105">
-        <v>-0.007287921092062046</v>
+        <v>-0.006294975689766794</v>
       </c>
       <c r="F105">
         <v>-32.97100522849088</v>
@@ -3037,7 +3037,7 @@
         <v>0.1543919769396873</v>
       </c>
       <c r="E106">
-        <v>-0.007287921092240225</v>
+        <v>-0.006294975689883131</v>
       </c>
       <c r="F106">
         <v>-32.97095836540312</v>
@@ -3057,7 +3057,7 @@
         <v>0.1543917735308017</v>
       </c>
       <c r="E107">
-        <v>-0.007287921092359121</v>
+        <v>-0.00629497568996076</v>
       </c>
       <c r="F107">
         <v>-32.97091146732648</v>
@@ -3077,7 +3077,7 @@
         <v>0.1543915696185532</v>
       </c>
       <c r="E108">
-        <v>-0.00728792109241867</v>
+        <v>-0.006294975689999641</v>
       </c>
       <c r="F108">
         <v>-32.97086445302156</v>
@@ -3097,7 +3097,7 @@
         <v>0.1543946901655613</v>
       </c>
       <c r="E109">
-        <v>-0.009313692398431854</v>
+        <v>-0.007617648945564857</v>
       </c>
       <c r="F109">
         <v>-34.92847900074617</v>
@@ -3117,7 +3117,7 @@
         <v>0.1543944864043217</v>
       </c>
       <c r="E110">
-        <v>-0.009313692397637841</v>
+        <v>-0.007617648945046427</v>
       </c>
       <c r="F110">
         <v>-34.9284320220826</v>
@@ -3137,7 +3137,7 @@
         <v>0.1543942826430821</v>
       </c>
       <c r="E111">
-        <v>-0.009313692397022448</v>
+        <v>-0.007617648944644622</v>
       </c>
       <c r="F111">
         <v>-34.92838504347654</v>
@@ -3157,7 +3157,7 @@
         <v>0.1543940799389042</v>
       </c>
       <c r="E112">
-        <v>-0.009313692396587974</v>
+        <v>-0.007617648944360945</v>
       </c>
       <c r="F112">
         <v>-34.92833830864082</v>
@@ -3177,7 +3177,7 @@
         <v>0.1543938758097674</v>
       </c>
       <c r="E113">
-        <v>-0.009313692396329501</v>
+        <v>-0.00761764894419218</v>
       </c>
       <c r="F113">
         <v>-34.92829124532867</v>
@@ -3197,7 +3197,7 @@
         <v>0.1543936723660887</v>
       </c>
       <c r="E114">
-        <v>-0.009313692396250208</v>
+        <v>-0.007617648944140409</v>
       </c>
       <c r="F114">
         <v>-34.92824434011083</v>
@@ -3217,7 +3217,7 @@
         <v>0.154393468957203</v>
       </c>
       <c r="E115">
-        <v>-0.009313692396349301</v>
+        <v>-0.007617648944205109</v>
       </c>
       <c r="F115">
         <v>-34.9281974429722</v>
@@ -3237,7 +3237,7 @@
         <v>0.1543932657496624</v>
       </c>
       <c r="E116">
-        <v>-0.009313692396626456</v>
+        <v>-0.007617648944386071</v>
       </c>
       <c r="F116">
         <v>-34.92815059231221</v>
@@ -3257,7 +3257,7 @@
         <v>0.1543930621394316</v>
       </c>
       <c r="E117">
-        <v>-0.009313692397082705</v>
+        <v>-0.007617648944683965</v>
       </c>
       <c r="F117">
         <v>-34.92810364886723</v>
@@ -3277,7 +3277,7 @@
         <v>0.1543928924558499</v>
       </c>
       <c r="E118">
-        <v>-0.009313692397611685</v>
+        <v>-0.007617648945029348</v>
       </c>
       <c r="F118">
         <v>-34.92806452744339</v>
@@ -3297,7 +3297,7 @@
         <v>0.1543927570764394</v>
       </c>
       <c r="E119">
-        <v>-0.00931369239811277</v>
+        <v>-0.007617648945356521</v>
       </c>
       <c r="F119">
         <v>-34.9280333150484</v>
@@ -3317,7 +3317,7 @@
         <v>0.1543925868643268</v>
       </c>
       <c r="E120">
-        <v>-0.009313692398842409</v>
+        <v>-0.007617648945832917</v>
       </c>
       <c r="F120">
         <v>-34.92799407183315</v>
@@ -3337,7 +3337,7 @@
         <v>0.1543923840942696</v>
       </c>
       <c r="E121">
-        <v>-0.009313692399889304</v>
+        <v>-0.00761764894651646</v>
       </c>
       <c r="F121">
         <v>-34.92794732228555</v>
@@ -3357,7 +3357,7 @@
         <v>0.1543921801975642</v>
       </c>
       <c r="E122">
-        <v>-0.009313692401120824</v>
+        <v>-0.007617648947320547</v>
       </c>
       <c r="F122">
         <v>-34.92790031304175</v>
@@ -3377,7 +3377,7 @@
         <v>0.1543919769396873</v>
       </c>
       <c r="E123">
-        <v>-0.009313692402526727</v>
+        <v>-0.007617648948238495</v>
       </c>
       <c r="F123">
         <v>-34.9278534511399</v>
@@ -3397,7 +3397,7 @@
         <v>0.1543917735308016</v>
       </c>
       <c r="E124">
-        <v>-0.009313692404111959</v>
+        <v>-0.00761764894927353</v>
       </c>
       <c r="F124">
         <v>-34.92780655447977</v>
@@ -3417,7 +3417,7 @@
         <v>0.1543915696185532</v>
       </c>
       <c r="E125">
-        <v>-0.009313692405879931</v>
+        <v>-0.00761764895042788</v>
       </c>
       <c r="F125">
         <v>-34.92775954182514</v>
@@ -3437,7 +3437,7 @@
         <v>0.07719734508278064</v>
       </c>
       <c r="E126">
-        <v>-0.009314429378973997</v>
+        <v>-0.007618130137321336</v>
       </c>
       <c r="F126">
         <v>-17.13039325832648</v>
@@ -3457,7 +3457,7 @@
         <v>0.07719724322732897</v>
       </c>
       <c r="E127">
-        <v>-0.009314429379886786</v>
+        <v>-0.007618130137917317</v>
       </c>
       <c r="F127">
         <v>-17.1303697751808</v>
@@ -3477,7 +3477,7 @@
         <v>0.07719714129637288</v>
       </c>
       <c r="E128">
-        <v>-0.00931442938074079</v>
+        <v>-0.007618130138474915</v>
       </c>
       <c r="F128">
         <v>-17.13034627456974</v>
@@ -3497,7 +3497,7 @@
         <v>0.07719703996945211</v>
       </c>
       <c r="E129">
-        <v>-0.009314429381530539</v>
+        <v>-0.00761813013899056</v>
       </c>
       <c r="F129">
         <v>-17.13032291316433</v>
@@ -3517,7 +3517,7 @@
         <v>0.07719693790488373</v>
       </c>
       <c r="E130">
-        <v>-0.009314429382266324</v>
+        <v>-0.007618130139470972</v>
       </c>
       <c r="F130">
         <v>-17.13029938163317</v>
@@ -3537,7 +3537,7 @@
         <v>0.07719683618304435</v>
       </c>
       <c r="E131">
-        <v>-0.009314429382940147</v>
+        <v>-0.007618130139910927</v>
       </c>
       <c r="F131">
         <v>-17.13027592906252</v>
@@ -3557,7 +3557,7 @@
         <v>0.07719673447860151</v>
       </c>
       <c r="E132">
-        <v>-0.009314429383554423</v>
+        <v>-0.007618130140312002</v>
       </c>
       <c r="F132">
         <v>-17.13025248044535</v>
@@ -3577,7 +3577,7 @@
         <v>0.07719663287483122</v>
       </c>
       <c r="E133">
-        <v>-0.009314429384108706</v>
+        <v>-0.007618130140673906</v>
       </c>
       <c r="F133">
         <v>-17.13022905498152</v>
@@ -3597,7 +3597,7 @@
         <v>0.07719654808337663</v>
       </c>
       <c r="E134">
-        <v>-0.009314429384521731</v>
+        <v>-0.007618130140943581</v>
       </c>
       <c r="F134">
         <v>-17.13020950566742</v>
@@ -3617,7 +3617,7 @@
         <v>0.07719646314091322</v>
       </c>
       <c r="E135">
-        <v>-0.009314429384902423</v>
+        <v>-0.007618130141192143</v>
       </c>
       <c r="F135">
         <v>-17.13018992150513</v>
@@ -3637,7 +3637,7 @@
         <v>0.07719634452348212</v>
       </c>
       <c r="E136">
-        <v>-0.009314429385364644</v>
+        <v>-0.007618130141493938</v>
       </c>
       <c r="F136">
         <v>-17.13016257324353</v>
@@ -3657,7 +3657,7 @@
         <v>0.07719620889285357</v>
       </c>
       <c r="E137">
-        <v>-0.009314429385787439</v>
+        <v>-0.007618130141769991</v>
       </c>
       <c r="F137">
         <v>-17.13013130234185</v>
@@ -3677,7 +3677,7 @@
         <v>0.0771960731983779</v>
       </c>
       <c r="E138">
-        <v>-0.009314429386104668</v>
+        <v>-0.007618130141977117</v>
       </c>
       <c r="F138">
         <v>-17.1301000166175</v>
@@ -3697,7 +3697,7 @@
         <v>0.07719593744144529</v>
       </c>
       <c r="E139">
-        <v>-0.009314429386316301</v>
+        <v>-0.007618130142115296</v>
       </c>
       <c r="F139">
         <v>-17.13006871639086</v>
@@ -3717,7 +3717,7 @@
         <v>0.07719580192990202</v>
       </c>
       <c r="E140">
-        <v>-0.009314429386421897</v>
+        <v>-0.007618130142184242</v>
       </c>
       <c r="F140">
         <v>-17.13003747263936</v>
@@ -3737,7 +3737,7 @@
         <v>0.07719734508278066</v>
       </c>
       <c r="E141">
-        <v>-0.01138911400410567</v>
+        <v>-0.008972740037880442</v>
       </c>
       <c r="F141">
         <v>-17.79844170761888</v>
@@ -3757,7 +3757,7 @@
         <v>0.07719724322732897</v>
       </c>
       <c r="E142">
-        <v>-0.01138911400373848</v>
+        <v>-0.008972740037640696</v>
       </c>
       <c r="F142">
         <v>-17.79841822406103</v>
@@ -3777,7 +3777,7 @@
         <v>0.07719714129637288</v>
       </c>
       <c r="E143">
-        <v>-0.01138911400349025</v>
+        <v>-0.008972740037478619</v>
       </c>
       <c r="F143">
         <v>-17.79839472309506</v>
@@ -3797,7 +3797,7 @@
         <v>0.07719703996945211</v>
       </c>
       <c r="E144">
-        <v>-0.01138911400336197</v>
+        <v>-0.008972740037394861</v>
       </c>
       <c r="F144">
         <v>-17.79837136139408</v>
@@ -3817,7 +3817,7 @@
         <v>0.07719693790488372</v>
       </c>
       <c r="E145">
-        <v>-0.011389114003352</v>
+        <v>-0.008972740037388349</v>
       </c>
       <c r="F145">
         <v>-17.79834782962275</v>
@@ -3837,7 +3837,7 @@
         <v>0.07719683618304436</v>
       </c>
       <c r="E146">
-        <v>-0.01138911400346098</v>
+        <v>-0.008972740037459506</v>
       </c>
       <c r="F146">
         <v>-17.79832437687026</v>
@@ -3857,7 +3857,7 @@
         <v>0.07719673447860151</v>
       </c>
       <c r="E147">
-        <v>-0.01138911400368891</v>
+        <v>-0.008972740037608326</v>
       </c>
       <c r="F147">
         <v>-17.79830092812865</v>
@@ -3877,7 +3877,7 @@
         <v>0.07719663287483121</v>
       </c>
       <c r="E148">
-        <v>-0.01138911400403532</v>
+        <v>-0.00897274003783451</v>
       </c>
       <c r="F148">
         <v>-17.79827750259788</v>
@@ -3897,7 +3897,7 @@
         <v>0.07719654808337663</v>
       </c>
       <c r="E149">
-        <v>-0.01138911400442352</v>
+        <v>-0.00897274003808797</v>
       </c>
       <c r="F149">
         <v>-17.7982579532758</v>
@@ -3917,7 +3917,7 @@
         <v>0.07719646314091323</v>
       </c>
       <c r="E150">
-        <v>-0.01138911400487865</v>
+        <v>-0.008972740038385135</v>
       </c>
       <c r="F150">
         <v>-17.79823836913749</v>
@@ -3937,7 +3937,7 @@
         <v>0.0771963445234821</v>
       </c>
       <c r="E151">
-        <v>-0.01138911400565289</v>
+        <v>-0.008972740038890656</v>
       </c>
       <c r="F151">
         <v>-17.79821102097635</v>
@@ -3957,7 +3957,7 @@
         <v>0.07719620889285356</v>
       </c>
       <c r="E152">
-        <v>-0.01138911400674963</v>
+        <v>-0.008972740039606741</v>
       </c>
       <c r="F152">
         <v>-17.79817975029167</v>
@@ -3977,7 +3977,7 @@
         <v>0.0771960731983779</v>
       </c>
       <c r="E153">
-        <v>-0.01138911400805826</v>
+        <v>-0.008972740040461179</v>
       </c>
       <c r="F153">
         <v>-17.79814846488656</v>
@@ -3997,7 +3997,7 @@
         <v>0.07719593744144529</v>
       </c>
       <c r="E154">
-        <v>-0.01138911400957915</v>
+        <v>-0.008972740041454201</v>
       </c>
       <c r="F154">
         <v>-17.79811716508151</v>
@@ -4017,7 +4017,7 @@
         <v>0.07719580192990201</v>
       </c>
       <c r="E155">
-        <v>-0.01138911401130852</v>
+        <v>-0.008972740042583346</v>
       </c>
       <c r="F155">
         <v>-17.79808592185285</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>-0.01139021949353867</v>
+        <v>-0.008973461837672447</v>
       </c>
       <c r="F156">
         <v>0</v>
